--- a/FUNKCE/graphs/ALL-LIKEE-100-2048.xlsx
+++ b/FUNKCE/graphs/ALL-LIKEE-100-2048.xlsx
@@ -10748,10 +10748,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9086E408-ED3B-4252-830A-3DD20D77025E}">
-  <dimension ref="B1:BS73"/>
+  <dimension ref="B1:BS75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11475,13 +11475,23 @@
       </c>
     </row>
     <row r="6" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="C6"/>
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>41269947</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="C7"/>
+      <c r="B7" s="1">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>44241074</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
@@ -11489,220 +11499,566 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="C8"/>
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>65701200</v>
+      </c>
       <c r="F8" s="1">
         <f>-2.676596102*10^(-9)*B1^4+1.565395426*10^(-4)*B1^3-2.745507595*B1^2+25425.49351*B1+47154893.68</f>
         <v>49670144.226932988</v>
       </c>
     </row>
     <row r="9" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="C9"/>
+      <c r="B9" s="1">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>48816717</v>
+      </c>
     </row>
     <row r="10" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="C10"/>
+      <c r="B10" s="1">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>22844873</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="C11"/>
+      <c r="B11" s="1">
+        <v>500</v>
+      </c>
+      <c r="C11">
+        <v>68359250</v>
+      </c>
       <c r="F11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="C12"/>
+      <c r="B12" s="1">
+        <v>500</v>
+      </c>
+      <c r="C12">
+        <v>48487131</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="C13"/>
+      <c r="B13" s="1">
+        <v>500</v>
+      </c>
+      <c r="C13">
+        <v>84820321</v>
+      </c>
       <c r="F13" s="1">
         <f>-1.011528832*10^(-11)*B1^4+5.900917098*10^(-6)*B1^3-1.1991285*B1^2+105993.3122*B1-1871001331</f>
         <v>-1860413985.1650944</v>
       </c>
     </row>
     <row r="14" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="C14"/>
+      <c r="B14" s="1">
+        <v>500</v>
+      </c>
+      <c r="C14">
+        <v>46133746</v>
+      </c>
     </row>
     <row r="15" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="C15"/>
+      <c r="B15" s="1">
+        <v>500</v>
+      </c>
+      <c r="C15">
+        <v>68735114</v>
+      </c>
     </row>
     <row r="16" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73"/>
+      <c r="B16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>74915144</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>71938560</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>74180226</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C19">
+        <v>67042039</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C20">
+        <v>80212347</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C21">
+        <v>93314077</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C22">
+        <v>77613548</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C23">
+        <v>96957995</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C24">
+        <v>74344373</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C25">
+        <v>95807872</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C26">
+        <v>109897082</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C27">
+        <v>118986676</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C28">
+        <v>106281278</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C29">
+        <v>115925204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C30">
+        <v>124617898</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C31">
+        <v>151620338</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C32">
+        <v>167897162</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C33">
+        <v>133527752</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C34">
+        <v>148125940</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C35">
+        <v>158127552</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C36">
+        <v>157719689</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C37">
+        <v>142350058</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C38">
+        <v>163548590</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C39">
+        <v>150311440</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C40">
+        <v>145564929</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C41">
+        <v>264010902</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C42">
+        <v>309200249</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C43">
+        <v>307602137</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C44">
+        <v>275416196</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C45">
+        <v>252489378</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C46">
+        <v>380306162</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C47">
+        <v>377974356</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C48">
+        <v>427373935</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C49">
+        <v>379161388</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C50">
+        <v>422516352</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C51">
+        <v>1003963683</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C52">
+        <v>1005168316</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C53">
+        <v>1275289357</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C54">
+        <v>968052425</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C55">
+        <v>1010560753</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C56">
+        <v>1559456407</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C57">
+        <v>1518627156</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C58">
+        <v>1657023312</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C59">
+        <v>1582154250</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>75000</v>
+      </c>
+      <c r="C60">
+        <v>1517505647</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C61">
+        <v>1593756297</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C62">
+        <v>1603278168</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C63">
+        <v>1635578567</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C64">
+        <v>1588005338</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C65">
+        <v>1561175378</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C66">
+        <v>2362591587</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C67">
+        <v>2406260797</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C68">
+        <v>2355098875</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C69">
+        <v>2448086241</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C70">
+        <v>2367328993</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C71">
+        <v>2411585144</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C72">
+        <v>2305789197</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C73">
+        <v>2395780529</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C74">
+        <v>2378413901</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C75">
+        <v>2358914359</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
